--- a/attached_assets/user-upload-template.xlsx
+++ b/attached_assets/user-upload-template.xlsx
@@ -1,45 +1,399 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prith\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655F17C-B91B-40AD-9D08-13C0247959E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Role Hierarchy" sheetId="2" r:id="rId2"/>
+    <sheet name="Users Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Field Descriptions" sheetId="2" r:id="rId2"/>
+    <sheet name="Role Hierarchy" sheetId="3" r:id="rId3"/>
+    <sheet name="Available Locations" sheetId="4" r:id="rId4"/>
+    <sheet name="Lines of Business" sheetId="5" r:id="rId5"/>
+    <sheet name="Available Processes" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>reportingManager</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>EMP001</t>
+  </si>
+  <si>
+    <t>securepassword123</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>1990-05-20</t>
+  </si>
+  <si>
+    <t>Bachelor's in Business</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Lead Generation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Unique username (required), no spaces allowed</t>
+  </si>
+  <si>
+    <t>john.smith</t>
+  </si>
+  <si>
+    <t>User's full name (required)</t>
+  </si>
+  <si>
+    <t>Valid email address (required)</t>
+  </si>
+  <si>
+    <t>john.smith@example.com</t>
+  </si>
+  <si>
+    <t>User role (required). Valid values: owner, admin, manager, team_lead, quality_analyst, trainer, advisor</t>
+  </si>
+  <si>
+    <t>Username of the manager (respects role hierarchy)</t>
+  </si>
+  <si>
+    <t>jane.manager</t>
+  </si>
+  <si>
+    <t>Location name (must match existing location in the system)</t>
+  </si>
+  <si>
+    <t>Employee ID (optional)</t>
+  </si>
+  <si>
+    <t>Initial password (required)</t>
+  </si>
+  <si>
+    <t>Phone number (optional)</t>
+  </si>
+  <si>
+    <t>Date of joining in YYYY-MM-DD format (optional)</t>
+  </si>
+  <si>
+    <t>Date of birth in YYYY-MM-DD format (optional)</t>
+  </si>
+  <si>
+    <t>Educational background (optional)</t>
+  </si>
+  <si>
+    <t>Line of Business name (must match existing LOB in the system)</t>
+  </si>
+  <si>
+    <t>Process name (must match existing process in the system)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Reports To</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>No one</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Owner only</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Owner or Admin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>team_lead</t>
+  </si>
+  <si>
+    <t>Owner, Admin, or Manager</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>quality_analyst</t>
+  </si>
+  <si>
+    <t>Owner, Admin, Manager, or Team Lead</t>
+  </si>
+  <si>
+    <t>Quality Analyst</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Any higher role</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Utter Pardesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Greater Noida</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>LOB ID</t>
+  </si>
+  <si>
+    <t>Line of Business Name</t>
+  </si>
+  <si>
+    <t>Sales &amp; Telemarketing</t>
+  </si>
+  <si>
+    <t>Collections &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Back Office Operations</t>
+  </si>
+  <si>
+    <t>IT Helpdesk</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Inbound Process</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Outbound Process</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email Process</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>loba</t>
+  </si>
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>Line of Business</t>
+  </si>
+  <si>
+    <t>Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Technical Assistance</t>
+  </si>
+  <si>
+    <t>Inbound Call Handling</t>
+  </si>
+  <si>
+    <t>Billing &amp; Payments Support</t>
+  </si>
+  <si>
+    <t>Hindware</t>
+  </si>
+  <si>
+    <t>Beetel</t>
+  </si>
+  <si>
+    <t>Lionsgate</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>IMCL</t>
+  </si>
+  <si>
+    <t>NCEL</t>
+  </si>
+  <si>
+    <t>Hindware_INB</t>
+  </si>
+  <si>
+    <t>Hindware_Outbound</t>
+  </si>
+  <si>
+    <t>Hindware_Email</t>
+  </si>
+  <si>
+    <t>Prithvi@123</t>
+  </si>
+  <si>
+    <t>jsmith1826</t>
+  </si>
+  <si>
+    <t>jsmith1826@example.com</t>
+  </si>
+  <si>
+    <t>Preetikumari</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -62,17 +416,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,181 +762,847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>username</v>
-      </c>
-      <c r="B1" t="str">
-        <v>fullName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>role</v>
-      </c>
-      <c r="E1" t="str">
-        <v>reportingManager</v>
-      </c>
-      <c r="F1" t="str">
-        <v>location</v>
-      </c>
-      <c r="G1" t="str">
-        <v>employeeId</v>
-      </c>
-      <c r="H1" t="str">
-        <v>password</v>
-      </c>
-      <c r="I1" t="str">
-        <v>phoneNumber</v>
-      </c>
-      <c r="J1" t="str">
-        <v>dateOfJoining</v>
-      </c>
-      <c r="K1" t="str">
-        <v>dateOfBirth</v>
-      </c>
-      <c r="L1" t="str">
-        <v>education</v>
-      </c>
-      <c r="M1" t="str">
-        <v>lineOfBusiness</v>
-      </c>
-      <c r="N1" t="str">
-        <v>process</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>jsmith</v>
-      </c>
-      <c r="B2" t="str">
-        <v>John Smith</v>
-      </c>
-      <c r="C2" t="str">
-        <v>jsmith@example.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>advisor</v>
-      </c>
-      <c r="E2" t="str">
-        <v>manager_username</v>
-      </c>
-      <c r="F2" t="str">
-        <v>New York</v>
-      </c>
-      <c r="G2" t="str">
-        <v>EMP001</v>
-      </c>
-      <c r="H2" t="str">
-        <v>securepassword123</v>
-      </c>
-      <c r="I2" t="str">
-        <v>123-456-7890</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2023-01-15</v>
-      </c>
-      <c r="K2" t="str">
-        <v>1990-05-20</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Bachelor's in Business</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Lead Generation</v>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{3A3D77DB-B72F-42DC-A8ED-DCD6E20EAB4C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5399E015-8513-468E-9146-B2578ECE4FB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
+    <ignoredError sqref="A1:N1 B2 I2:L2 D2 F2:G2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Role</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Reports To</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Owner</v>
-      </c>
-      <c r="B2" t="str">
-        <v>No one</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Owner only</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Manager</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Owner or Admin</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Team Lead</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Owner, Admin, or Manager</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Quality Analyst</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Owner, Admin, Manager, or Team Lead</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Trainer</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Owner, Admin, Manager, or Team Lead</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Advisor</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Any higher role</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/attached_assets/user-upload-template.xlsx
+++ b/attached_assets/user-upload-template.xlsx
@@ -1,43 +1,414 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prith\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870FE47-B444-4C69-9DA1-F5A49EFA656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Role Hierarchy" sheetId="2" r:id="rId2"/>
+    <sheet name="Users Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Field Descriptions" sheetId="2" r:id="rId2"/>
+    <sheet name="Role Hierarchy" sheetId="3" r:id="rId3"/>
+    <sheet name="Available Locations" sheetId="4" r:id="rId4"/>
+    <sheet name="Lines of Business" sheetId="5" r:id="rId5"/>
+    <sheet name="Available Processes" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Available Processes'!$A$1:$D$14</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>reportingManager</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>EMP001</t>
+  </si>
+  <si>
+    <t>securepassword123</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>1990-05-20</t>
+  </si>
+  <si>
+    <t>Bachelor's in Business</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Lead Generation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Unique username (required), no spaces allowed</t>
+  </si>
+  <si>
+    <t>john.smith</t>
+  </si>
+  <si>
+    <t>User's full name (required)</t>
+  </si>
+  <si>
+    <t>Valid email address (required)</t>
+  </si>
+  <si>
+    <t>john.smith@example.com</t>
+  </si>
+  <si>
+    <t>User role (required). Valid values: owner, admin, manager, team_lead, quality_analyst, trainer, advisor</t>
+  </si>
+  <si>
+    <t>Username of the manager (respects role hierarchy)</t>
+  </si>
+  <si>
+    <t>jane.manager</t>
+  </si>
+  <si>
+    <t>Location name (must match existing location in the system)</t>
+  </si>
+  <si>
+    <t>Employee ID (optional)</t>
+  </si>
+  <si>
+    <t>Initial password (required)</t>
+  </si>
+  <si>
+    <t>Phone number (optional)</t>
+  </si>
+  <si>
+    <t>Date of joining in YYYY-MM-DD format (optional)</t>
+  </si>
+  <si>
+    <t>Date of birth in YYYY-MM-DD format (optional)</t>
+  </si>
+  <si>
+    <t>Educational background (optional)</t>
+  </si>
+  <si>
+    <t>Line of Business name (must match existing LOB in the system)</t>
+  </si>
+  <si>
+    <t>Process name (must match existing process in the system)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Reports To</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>No one</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Owner only</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Owner or Admin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>team_lead</t>
+  </si>
+  <si>
+    <t>Owner, Admin, or Manager</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>quality_analyst</t>
+  </si>
+  <si>
+    <t>Owner, Admin, Manager, or Team Lead</t>
+  </si>
+  <si>
+    <t>Quality Analyst</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Any higher role</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Utter Pardesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Greater Noida</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>LOB ID</t>
+  </si>
+  <si>
+    <t>Line of Business Name</t>
+  </si>
+  <si>
+    <t>Sales &amp; Telemarketing</t>
+  </si>
+  <si>
+    <t>Collections &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Back Office Operations</t>
+  </si>
+  <si>
+    <t>IT Helpdesk</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Inbound Process</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Outbound Process</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email Process</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>loba</t>
+  </si>
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>Line of Business</t>
+  </si>
+  <si>
+    <t>Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Technical Assistance</t>
+  </si>
+  <si>
+    <t>Inbound Call Handling</t>
+  </si>
+  <si>
+    <t>Billing &amp; Payments Support</t>
+  </si>
+  <si>
+    <t>Hindware</t>
+  </si>
+  <si>
+    <t>Beetel</t>
+  </si>
+  <si>
+    <t>Lionsgate</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>IMCL</t>
+  </si>
+  <si>
+    <t>NCEL</t>
+  </si>
+  <si>
+    <t>Hindware_INB</t>
+  </si>
+  <si>
+    <t>Hindware_Outbound</t>
+  </si>
+  <si>
+    <t>Hindware_Email</t>
+  </si>
+  <si>
+    <t>Prithvi@123</t>
+  </si>
+  <si>
+    <t>Admin.1</t>
+  </si>
+  <si>
+    <t>Complaint Resolution,Hindware</t>
+  </si>
+  <si>
+    <t>Customer Support,Inbound</t>
+  </si>
+  <si>
+    <t>jsmith2</t>
+  </si>
+  <si>
+    <t>Jsmith2@example.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,17 +433,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,181 +788,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>username</v>
-      </c>
-      <c r="B1" t="str">
-        <v>fullName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>role</v>
-      </c>
-      <c r="E1" t="str">
-        <v>reportingManager</v>
-      </c>
-      <c r="F1" t="str">
-        <v>location</v>
-      </c>
-      <c r="G1" t="str">
-        <v>employeeId</v>
-      </c>
-      <c r="H1" t="str">
-        <v>password</v>
-      </c>
-      <c r="I1" t="str">
-        <v>phoneNumber</v>
-      </c>
-      <c r="J1" t="str">
-        <v>dateOfJoining</v>
-      </c>
-      <c r="K1" t="str">
-        <v>dateOfBirth</v>
-      </c>
-      <c r="L1" t="str">
-        <v>education</v>
-      </c>
-      <c r="M1" t="str">
-        <v>lineOfBusiness</v>
-      </c>
-      <c r="N1" t="str">
-        <v>process</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>jsmith</v>
-      </c>
-      <c r="B2" t="str">
-        <v>John Smith</v>
-      </c>
-      <c r="C2" t="str">
-        <v>jsmith@example.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>advisor</v>
-      </c>
-      <c r="E2" t="str">
-        <v>manager_username</v>
-      </c>
-      <c r="F2" t="str">
-        <v>New York</v>
-      </c>
-      <c r="G2" t="str">
-        <v>EMP001</v>
-      </c>
-      <c r="H2" t="str">
-        <v>securepassword123</v>
-      </c>
-      <c r="I2" t="str">
-        <v>123-456-7890</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2023-01-15</v>
-      </c>
-      <c r="K2" t="str">
-        <v>1990-05-20</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Bachelor's in Business</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Lead Generation</v>
-      </c>
-    </row>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2">
+        <v>9311587329</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{3A3D77DB-B72F-42DC-A8ED-DCD6E20EAB4C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5399E015-8513-468E-9146-B2578ECE4FB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
+    <ignoredError sqref="A1:N1 B2 J2:L2 D2 F2:G2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Role</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Reports To</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Owner</v>
-      </c>
-      <c r="B2" t="str">
-        <v>No one</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Owner only</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Manager</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Owner or Admin</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Team Lead</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Owner, Admin, or Manager</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Quality Analyst</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Owner, Admin, Manager, or Team Lead</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Trainer</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Owner, Admin, Manager, or Team Lead</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Advisor</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Any higher role</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D2 A4:D14 A3 C3:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>